--- a/Format/Classific/Diffuse Nebulae/Gum/Gum.xlsx
+++ b/Format/Classific/Diffuse Nebulae/Gum/Gum.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$98</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="409">
   <si>
     <t>IC 2177</t>
   </si>
@@ -1220,6 +1223,41 @@
   </si>
   <si>
     <t>Sp type</t>
+  </si>
+  <si>
+    <t>RCW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCW 2</t>
+  </si>
+  <si>
+    <t>RCW 32</t>
+  </si>
+  <si>
+    <t>RCW 3</t>
+  </si>
+  <si>
+    <t>RCW 34, Two-Faced Nebula, Gum 19, BHe25a</t>
+  </si>
+  <si>
+    <t>RCW 38</t>
+  </si>
+  <si>
+    <t>RCW 40</t>
+  </si>
+  <si>
+    <t>RCW 52</t>
+  </si>
+  <si>
+    <t>RCW 60</t>
+  </si>
+  <si>
+    <t>RCW 61</t>
+  </si>
+  <si>
+    <t>Seagull Nebula (the wing portion), IC 2177, Sh2-296, RCW1 (with NGC 2327)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1549,15 +1587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="67.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -1568,34 +1611,37 @@
         <v>388</v>
       </c>
       <c r="D1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" t="s">
         <v>389</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>390</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>391</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>392</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>393</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>394</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>395</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>396</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1606,19 +1652,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1629,31 +1678,34 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.35</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.21</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>7.23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1663,32 +1715,32 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7.02</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.8699999999999992</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8.84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1698,20 +1750,20 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1721,20 +1773,20 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1744,20 +1796,20 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1767,20 +1819,20 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1790,20 +1842,20 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-25.2</v>
       </c>
-      <c r="L9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1813,20 +1865,20 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1836,20 +1888,20 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="L11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1859,20 +1911,20 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="L12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1882,35 +1934,35 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.64</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.58</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.83</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.85</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1920,20 +1972,20 @@
       <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>54</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-38.4</v>
       </c>
-      <c r="L14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1943,20 +1995,20 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="L15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1966,35 +2018,35 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7.07</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7.59</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7.19</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6.67</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6.3</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2005,19 +2057,22 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>66</v>
       </c>
-      <c r="L17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2027,20 +2082,20 @@
       <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-44.1</v>
       </c>
-      <c r="L18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2051,31 +2106,34 @@
         <v>70</v>
       </c>
       <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4.95</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7.18</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2085,20 +2143,20 @@
       <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="L20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2109,25 +2167,28 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>81</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>10.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>11.21</v>
       </c>
-      <c r="L21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2138,22 +2199,25 @@
         <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>85</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>15.2</v>
       </c>
-      <c r="L22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2163,32 +2227,32 @@
       <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>88</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9.0399999999999991</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9.1300000000000008</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9.52</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2198,20 +2262,20 @@
       <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
       <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>93</v>
       </c>
-      <c r="L24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2222,19 +2286,22 @@
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>95</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>96</v>
       </c>
-      <c r="L25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2244,20 +2311,20 @@
       <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
       <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>98</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>99</v>
       </c>
-      <c r="L26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2268,19 +2335,22 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
         <v>101</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>102</v>
       </c>
-      <c r="L27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2290,20 +2360,20 @@
       <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
       <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
         <v>104</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>105</v>
       </c>
-      <c r="L28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2313,23 +2383,23 @@
       <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>108</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>109</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>110</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12.4</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2339,20 +2409,20 @@
       <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
       <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
         <v>114</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>115</v>
       </c>
-      <c r="L30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2362,20 +2432,20 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
       <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>117</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>118</v>
       </c>
-      <c r="L31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2385,26 +2455,26 @@
       <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>44</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>121</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>122</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4.84</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4.7</v>
       </c>
-      <c r="L32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2414,20 +2484,20 @@
       <c r="C33" t="s">
         <v>124</v>
       </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
       <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>125</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>126</v>
       </c>
-      <c r="L33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2438,19 +2508,22 @@
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
         <v>128</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>129</v>
       </c>
-      <c r="L34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2460,20 +2533,20 @@
       <c r="C35" t="s">
         <v>131</v>
       </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
       <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
         <v>132</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>133</v>
       </c>
-      <c r="L35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2483,20 +2556,20 @@
       <c r="C36" t="s">
         <v>134</v>
       </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
-      <c r="L36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2506,20 +2579,20 @@
       <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
       <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>136</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>137</v>
       </c>
-      <c r="L37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2529,20 +2602,20 @@
       <c r="C38" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
       <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>139</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>140</v>
       </c>
-      <c r="L38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2553,19 +2626,22 @@
         <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
         <v>142</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>143</v>
       </c>
-      <c r="L39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2575,32 +2651,32 @@
       <c r="C40" t="s">
         <v>145</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>146</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>147</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>8.42</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>9.77</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2610,29 +2686,29 @@
       <c r="C41" t="s">
         <v>150</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>151</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>152</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>153</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>6.81</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>7.63</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>7.72</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2642,20 +2718,20 @@
       <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
       <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
         <v>157</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>158</v>
       </c>
-      <c r="L42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2665,20 +2741,20 @@
       <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>161</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>162</v>
       </c>
-      <c r="L43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2689,31 +2765,34 @@
         <v>164</v>
       </c>
       <c r="D44" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" t="s">
         <v>8</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>165</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>166</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>7.74</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>9.39</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>9.18</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>9.16</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2723,32 +2802,32 @@
       <c r="C45" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>170</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>171</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>172</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>9.0399999999999991</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>9.86</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>9.6199999999999992</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>9.7100000000000009</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2759,31 +2838,34 @@
         <v>175</v>
       </c>
       <c r="D46" t="s">
+        <v>407</v>
+      </c>
+      <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>176</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>177</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>7.36</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>8.17</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>8.08</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>8.9</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2793,20 +2875,20 @@
       <c r="C47" t="s">
         <v>179</v>
       </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
       <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
         <v>180</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>181</v>
       </c>
-      <c r="L47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2816,20 +2898,20 @@
       <c r="C48" t="s">
         <v>182</v>
       </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
       <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>183</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>184</v>
       </c>
-      <c r="L48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2839,20 +2921,20 @@
       <c r="C49" t="s">
         <v>185</v>
       </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
       <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
         <v>186</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>187</v>
       </c>
-      <c r="L49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2863,19 +2945,22 @@
         <v>189</v>
       </c>
       <c r="D50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s">
         <v>108</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>190</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>191</v>
       </c>
-      <c r="L50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2885,32 +2970,32 @@
       <c r="C51" t="s">
         <v>193</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>194</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>195</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>11.14</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>11.4</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>10.77</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>10.76</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2920,29 +3005,29 @@
       <c r="C52" t="s">
         <v>198</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>108</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>199</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>200</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14.1</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>14.5</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>14.35</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2952,20 +3037,20 @@
       <c r="C53" t="s">
         <v>202</v>
       </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
       <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
         <v>203</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>204</v>
       </c>
-      <c r="L53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2975,20 +3060,20 @@
       <c r="C54" t="s">
         <v>205</v>
       </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
       <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
         <v>206</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>207</v>
       </c>
-      <c r="L54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2998,20 +3083,20 @@
       <c r="C55" t="s">
         <v>208</v>
       </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
       <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
         <v>209</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>210</v>
       </c>
-      <c r="L55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3021,35 +3106,35 @@
       <c r="C56" t="s">
         <v>212</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>213</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>214</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>215</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>10.51</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>10.95</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>10.41</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>10.37</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>8.94</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3059,20 +3144,20 @@
       <c r="C57" t="s">
         <v>217</v>
       </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
       <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
         <v>218</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>219</v>
       </c>
-      <c r="L57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3082,20 +3167,20 @@
       <c r="C58" t="s">
         <v>220</v>
       </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
       <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
         <v>221</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>222</v>
       </c>
-      <c r="L58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3105,32 +3190,32 @@
       <c r="C59" t="s">
         <v>224</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>71</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>225</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>226</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>6.49</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>7.12</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>6.71</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>7.61</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3140,20 +3225,20 @@
       <c r="C60" t="s">
         <v>228</v>
       </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
       <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
         <v>229</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>230</v>
       </c>
-      <c r="L60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3163,20 +3248,20 @@
       <c r="C61" t="s">
         <v>231</v>
       </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
       <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
         <v>232</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>233</v>
       </c>
-      <c r="L61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3186,20 +3271,20 @@
       <c r="C62" t="s">
         <v>234</v>
       </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
       <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>235</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>-42.2</v>
       </c>
-      <c r="L62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3209,35 +3294,35 @@
       <c r="C63" t="s">
         <v>237</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>238</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>239</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>6.43</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>7.24</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>7.1</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>8.11</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>8.4700000000000006</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3247,32 +3332,32 @@
       <c r="C64" t="s">
         <v>242</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>243</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>244</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>6.79</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>7.61</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>7.47</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>8.49</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3282,35 +3367,35 @@
       <c r="C65" t="s">
         <v>247</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>248</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>249</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>250</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>6.06</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>6.78</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>6.51</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>6.08</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>5.9</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3320,20 +3405,20 @@
       <c r="C66" t="s">
         <v>253</v>
       </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
       <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
         <v>254</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>255</v>
       </c>
-      <c r="L66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3343,20 +3428,20 @@
       <c r="C67" t="s">
         <v>256</v>
       </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
       <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
         <v>257</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>258</v>
       </c>
-      <c r="L67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3366,26 +3451,26 @@
       <c r="C68" t="s">
         <v>260</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>108</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>261</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>262</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>7.1</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>10.1</v>
       </c>
-      <c r="L68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3395,20 +3480,20 @@
       <c r="C69" t="s">
         <v>264</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>265</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>266</v>
       </c>
-      <c r="L69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3418,20 +3503,20 @@
       <c r="C70" t="s">
         <v>268</v>
       </c>
-      <c r="D70" t="s">
-        <v>20</v>
-      </c>
       <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
         <v>269</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>270</v>
       </c>
-      <c r="L70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3441,35 +3526,35 @@
       <c r="C71" t="s">
         <v>272</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>273</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>274</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>10.17</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>10.31</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>9.6300000000000008</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>9.81</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>8.91</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3479,20 +3564,20 @@
       <c r="C72" t="s">
         <v>276</v>
       </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
       <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
         <v>277</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>278</v>
       </c>
-      <c r="L72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3502,20 +3587,20 @@
       <c r="C73" t="s">
         <v>279</v>
       </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
       <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
         <v>280</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>281</v>
       </c>
-      <c r="L73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3525,20 +3610,20 @@
       <c r="C74" t="s">
         <v>282</v>
       </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
       <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>284</v>
       </c>
-      <c r="L74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3548,35 +3633,35 @@
       <c r="C75" t="s">
         <v>286</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>287</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>288</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>289</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>3.02</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>2.89</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1.69</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>1.58</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3586,20 +3671,20 @@
       <c r="C76" t="s">
         <v>292</v>
       </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
       <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
         <v>293</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>294</v>
       </c>
-      <c r="L76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3609,32 +3694,32 @@
       <c r="C77" t="s">
         <v>296</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>71</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>297</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>298</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>4.88</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>5.74</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>5.7</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>7.19</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3644,32 +3729,32 @@
       <c r="C78" t="s">
         <v>301</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>170</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>302</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>303</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>6.22</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>7.07</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>7.04</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>7.93</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3679,32 +3764,32 @@
       <c r="C79" t="s">
         <v>306</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>213</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>307</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>308</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>7.48</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>8.11</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>7.97</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>8.81</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3714,20 +3799,20 @@
       <c r="C80" t="s">
         <v>310</v>
       </c>
-      <c r="D80" t="s">
-        <v>20</v>
-      </c>
       <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
         <v>311</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>312</v>
       </c>
-      <c r="L80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3737,32 +3822,32 @@
       <c r="C81" t="s">
         <v>314</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>315</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>316</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>5.35</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>6.24</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>6.2</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>7.33</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3772,20 +3857,20 @@
       <c r="C82" t="s">
         <v>318</v>
       </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
       <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
         <v>319</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>320</v>
       </c>
-      <c r="L82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3795,35 +3880,35 @@
       <c r="C83" t="s">
         <v>322</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>151</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>323</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>324</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1.73</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>2.58</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>2.56</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>2.46</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>2.5</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3833,20 +3918,20 @@
       <c r="C84" t="s">
         <v>326</v>
       </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
       <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
         <v>327</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>328</v>
       </c>
-      <c r="L84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3856,32 +3941,32 @@
       <c r="C85" t="s">
         <v>330</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>331</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>332</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>333</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>9.8800000000000008</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>9.66</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>9.7899999999999991</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3891,32 +3976,32 @@
       <c r="C86" t="s">
         <v>336</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>337</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>338</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>339</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>6.65</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>7.45</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>7.31</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>8.36</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3926,29 +4011,29 @@
       <c r="C87" t="s">
         <v>342</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>213</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>343</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>344</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>6.49</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>7.49</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>6.8</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3958,20 +4043,20 @@
       <c r="C88" t="s">
         <v>346</v>
       </c>
-      <c r="D88" t="s">
-        <v>20</v>
-      </c>
       <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
         <v>347</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>348</v>
       </c>
-      <c r="L88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3981,20 +4066,20 @@
       <c r="C89" t="s">
         <v>349</v>
       </c>
-      <c r="D89" t="s">
-        <v>20</v>
-      </c>
       <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
         <v>350</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>351</v>
       </c>
-      <c r="L89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4004,26 +4089,26 @@
       <c r="C90" t="s">
         <v>353</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>354</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>355</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>7.7</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>7.61</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4033,32 +4118,32 @@
       <c r="C91" t="s">
         <v>358</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>359</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>360</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>7.69</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>9.16</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>9.07</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>8.91</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4068,35 +4153,35 @@
       <c r="C92" t="s">
         <v>363</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>364</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>365</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>8.15</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>8.6300000000000008</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>8.0399999999999991</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>7.5</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>7</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4106,20 +4191,20 @@
       <c r="C93" t="s">
         <v>367</v>
       </c>
-      <c r="D93" t="s">
-        <v>20</v>
-      </c>
       <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
         <v>368</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>369</v>
       </c>
-      <c r="L93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4129,20 +4214,20 @@
       <c r="C94" t="s">
         <v>370</v>
       </c>
-      <c r="D94" t="s">
-        <v>20</v>
-      </c>
       <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
         <v>371</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>372</v>
       </c>
-      <c r="L94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4152,20 +4237,20 @@
       <c r="C95" t="s">
         <v>373</v>
       </c>
-      <c r="D95" t="s">
-        <v>20</v>
-      </c>
       <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
         <v>374</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>375</v>
       </c>
-      <c r="L95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4175,20 +4260,20 @@
       <c r="C96" t="s">
         <v>377</v>
       </c>
-      <c r="D96" t="s">
-        <v>20</v>
-      </c>
       <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
         <v>378</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>379</v>
       </c>
-      <c r="L96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4198,20 +4283,20 @@
       <c r="C97" t="s">
         <v>380</v>
       </c>
-      <c r="D97" t="s">
-        <v>20</v>
-      </c>
       <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
         <v>381</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>382</v>
       </c>
-      <c r="L97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4221,21 +4306,23 @@
       <c r="C98" t="s">
         <v>383</v>
       </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
       <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
         <v>384</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>385</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D98"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>